--- a/JupyterNotebooks/AveragedIntensities-SRP/Alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/Alpha4F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9834293948126801</v>
+        <v>0.9896613832853026</v>
       </c>
       <c r="D3">
-        <v>0.8329106628242074</v>
+        <v>0.8257276657060518</v>
       </c>
       <c r="E3">
-        <v>1.06135446685879</v>
+        <v>1.060648414985591</v>
       </c>
       <c r="F3">
-        <v>0.9834293948126801</v>
+        <v>0.9896613832853026</v>
       </c>
       <c r="G3">
-        <v>0.8843083573487032</v>
+        <v>0.8822622478386167</v>
       </c>
       <c r="H3">
-        <v>1.193314121037464</v>
+        <v>1.189157060518732</v>
       </c>
       <c r="I3">
-        <v>1.041606628242075</v>
+        <v>1.042946685878962</v>
       </c>
       <c r="J3">
-        <v>0.8329106628242074</v>
+        <v>0.8257276657060518</v>
       </c>
       <c r="K3">
-        <v>0.9834293948126801</v>
+        <v>0.9896613832853026</v>
       </c>
       <c r="L3">
-        <v>0.9471325648414985</v>
+        <v>1.060648414985591</v>
       </c>
       <c r="M3">
-        <v>0.9471325648414985</v>
+        <v>0.9431880403458213</v>
       </c>
       <c r="N3">
-        <v>0.9261911623439</v>
+        <v>0.9431880403458213</v>
       </c>
       <c r="O3">
-        <v>0.9592315081652257</v>
+        <v>0.9228794428434197</v>
       </c>
       <c r="P3">
-        <v>0.9592315081652257</v>
+        <v>0.9586791546589817</v>
       </c>
       <c r="Q3">
-        <v>0.9652809798270893</v>
+        <v>0.9586791546589817</v>
       </c>
       <c r="R3">
-        <v>0.9652809798270893</v>
+        <v>0.9664247118155619</v>
       </c>
       <c r="S3">
-        <v>0.9994872718539867</v>
+        <v>0.9664247118155619</v>
+      </c>
+      <c r="T3">
+        <v>0.9984005763688759</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002956508206031</v>
+        <v>1.006458699853815</v>
       </c>
       <c r="D4">
-        <v>0.9728132464998029</v>
+        <v>0.9702045769904586</v>
       </c>
       <c r="E4">
-        <v>0.9986723187697404</v>
+        <v>0.9977272791950519</v>
       </c>
       <c r="F4">
-        <v>1.002956508206031</v>
+        <v>1.006458699853815</v>
       </c>
       <c r="G4">
-        <v>0.9809523347875759</v>
+        <v>0.9801627344677278</v>
       </c>
       <c r="H4">
-        <v>1.003706180384196</v>
+        <v>1.001297630404104</v>
       </c>
       <c r="I4">
-        <v>0.9997045264228847</v>
+        <v>1.000221549211721</v>
       </c>
       <c r="J4">
-        <v>0.9728132464998029</v>
+        <v>0.9702045769904586</v>
       </c>
       <c r="K4">
-        <v>1.002956508206031</v>
+        <v>1.006458699853815</v>
       </c>
       <c r="L4">
-        <v>0.9857427826347717</v>
+        <v>0.9977272791950519</v>
       </c>
       <c r="M4">
-        <v>0.9857427826347717</v>
+        <v>0.9839659280927553</v>
       </c>
       <c r="N4">
-        <v>0.9841459666857064</v>
+        <v>0.9839659280927553</v>
       </c>
       <c r="O4">
-        <v>0.9914806911585249</v>
+        <v>0.9826981968844128</v>
       </c>
       <c r="P4">
-        <v>0.9914806911585249</v>
+        <v>0.9914635186797751</v>
       </c>
       <c r="Q4">
-        <v>0.9943496454204015</v>
+        <v>0.9914635186797751</v>
       </c>
       <c r="R4">
-        <v>0.9943496454204015</v>
+        <v>0.995212313973285</v>
       </c>
       <c r="S4">
-        <v>0.9931341858450384</v>
+        <v>0.995212313973285</v>
+      </c>
+      <c r="T4">
+        <v>0.9926787450204797</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.014404809297291</v>
+        <v>1.015325854287473</v>
       </c>
       <c r="D5">
-        <v>0.9525212396141796</v>
+        <v>0.9520672608689356</v>
       </c>
       <c r="E5">
-        <v>1.000376320712997</v>
+        <v>0.9999041670986337</v>
       </c>
       <c r="F5">
-        <v>1.014404809297291</v>
+        <v>1.015325854287473</v>
       </c>
       <c r="G5">
-        <v>0.9717368667420166</v>
+        <v>0.9716656593299965</v>
       </c>
       <c r="H5">
-        <v>1.007004943397114</v>
+        <v>1.006017366443895</v>
       </c>
       <c r="I5">
-        <v>1.004361450956892</v>
+        <v>1.004408743195561</v>
       </c>
       <c r="J5">
-        <v>0.9525212396141796</v>
+        <v>0.9520672608689356</v>
       </c>
       <c r="K5">
-        <v>1.014404809297291</v>
+        <v>1.015325854287473</v>
       </c>
       <c r="L5">
-        <v>0.976448780163588</v>
+        <v>0.9999041670986337</v>
       </c>
       <c r="M5">
-        <v>0.976448780163588</v>
+        <v>0.9759857139837846</v>
       </c>
       <c r="N5">
-        <v>0.9748781423563976</v>
+        <v>0.9759857139837846</v>
       </c>
       <c r="O5">
-        <v>0.9891007898748222</v>
+        <v>0.9745456957658553</v>
       </c>
       <c r="P5">
-        <v>0.9891007898748222</v>
+        <v>0.9890990940850143</v>
       </c>
       <c r="Q5">
-        <v>0.9954267947304394</v>
+        <v>0.9890990940850143</v>
       </c>
       <c r="R5">
-        <v>0.9954267947304394</v>
+        <v>0.9956557841356291</v>
       </c>
       <c r="S5">
-        <v>0.9917342717867482</v>
+        <v>0.9956557841356291</v>
+      </c>
+      <c r="T5">
+        <v>0.9915648418707494</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9913449528458484</v>
+        <v>0.9919530836898475</v>
       </c>
       <c r="D6">
-        <v>0.9927041508451828</v>
+        <v>0.9927867998959067</v>
       </c>
       <c r="E6">
-        <v>0.9971899309280641</v>
+        <v>0.9967543493440122</v>
       </c>
       <c r="F6">
-        <v>0.9913449528458484</v>
+        <v>0.9919530836898475</v>
       </c>
       <c r="G6">
-        <v>0.9900789865243315</v>
+        <v>0.9902076254589198</v>
       </c>
       <c r="H6">
-        <v>1.001429298341109</v>
+        <v>1.000362603846329</v>
       </c>
       <c r="I6">
-        <v>0.9954968210283139</v>
+        <v>0.9954146511477043</v>
       </c>
       <c r="J6">
-        <v>0.9927041508451828</v>
+        <v>0.9927867998959067</v>
       </c>
       <c r="K6">
-        <v>0.9913449528458484</v>
+        <v>0.9919530836898475</v>
       </c>
       <c r="L6">
-        <v>0.9949470408866234</v>
+        <v>0.9967543493440122</v>
       </c>
       <c r="M6">
-        <v>0.9949470408866234</v>
+        <v>0.9947705746199594</v>
       </c>
       <c r="N6">
-        <v>0.9933243560991928</v>
+        <v>0.9947705746199594</v>
       </c>
       <c r="O6">
-        <v>0.9937463448730318</v>
+        <v>0.9932495915662796</v>
       </c>
       <c r="P6">
-        <v>0.9937463448730318</v>
+        <v>0.9938314109765888</v>
       </c>
       <c r="Q6">
-        <v>0.9931459968662359</v>
+        <v>0.9938314109765888</v>
       </c>
       <c r="R6">
-        <v>0.9931459968662359</v>
+        <v>0.9933618291549035</v>
       </c>
       <c r="S6">
-        <v>0.9947073567521417</v>
+        <v>0.9933618291549035</v>
+      </c>
+      <c r="T6">
+        <v>0.9945798522304532</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9896241418369072</v>
+        <v>1.414749273477291</v>
       </c>
       <c r="D7">
-        <v>0.9961310326781126</v>
+        <v>0.5717893320643452</v>
       </c>
       <c r="E7">
-        <v>0.9967233654768124</v>
+        <v>0.9390975079181278</v>
       </c>
       <c r="F7">
-        <v>0.9896241418369072</v>
+        <v>1.414749273477291</v>
       </c>
       <c r="G7">
-        <v>0.992231282819385</v>
+        <v>0.8418046483612815</v>
       </c>
       <c r="H7">
-        <v>0.9989723178993113</v>
+        <v>0.8029581348717065</v>
       </c>
       <c r="I7">
-        <v>0.9945925867416535</v>
+        <v>1.069788694488562</v>
       </c>
       <c r="J7">
-        <v>0.9961310326781126</v>
+        <v>0.5717893320643452</v>
       </c>
       <c r="K7">
-        <v>0.9896241418369072</v>
+        <v>1.414749273477291</v>
       </c>
       <c r="L7">
-        <v>0.9964271990774625</v>
+        <v>0.9390975079181278</v>
       </c>
       <c r="M7">
-        <v>0.9964271990774625</v>
+        <v>0.7554434199912365</v>
       </c>
       <c r="N7">
-        <v>0.9950285603247701</v>
+        <v>0.7554434199912365</v>
       </c>
       <c r="O7">
-        <v>0.9941595133306107</v>
+        <v>0.784230496114585</v>
       </c>
       <c r="P7">
-        <v>0.9941595133306107</v>
+        <v>0.9752120378199214</v>
       </c>
       <c r="Q7">
-        <v>0.9930256704571848</v>
+        <v>0.9752120378199214</v>
       </c>
       <c r="R7">
-        <v>0.9930256704571848</v>
+        <v>1.085096346734264</v>
       </c>
       <c r="S7">
-        <v>0.9947124545753637</v>
+        <v>1.085096346734264</v>
+      </c>
+      <c r="T7">
+        <v>0.940031265196886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.8516472369506882</v>
+      </c>
+      <c r="D8">
+        <v>0.9664389278803046</v>
+      </c>
+      <c r="E8">
+        <v>1.077757910552829</v>
+      </c>
+      <c r="F8">
+        <v>0.8516472369506882</v>
+      </c>
+      <c r="G8">
+        <v>0.9625287716695512</v>
+      </c>
+      <c r="H8">
+        <v>1.176392152622551</v>
+      </c>
+      <c r="I8">
+        <v>1.009033221104517</v>
+      </c>
+      <c r="J8">
+        <v>0.9664389278803046</v>
+      </c>
+      <c r="K8">
+        <v>0.8516472369506882</v>
+      </c>
+      <c r="L8">
+        <v>1.077757910552829</v>
+      </c>
+      <c r="M8">
+        <v>1.022098419216567</v>
+      </c>
+      <c r="N8">
+        <v>1.022098419216567</v>
+      </c>
+      <c r="O8">
+        <v>1.002241870034228</v>
+      </c>
+      <c r="P8">
+        <v>0.9652813584612741</v>
+      </c>
+      <c r="Q8">
+        <v>0.9652813584612741</v>
+      </c>
+      <c r="R8">
+        <v>0.9368728280836276</v>
+      </c>
+      <c r="S8">
+        <v>0.9368728280836276</v>
+      </c>
+      <c r="T8">
+        <v>1.007299703463407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.97</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>1.97</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.7</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>1.97</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>0.52</v>
+      </c>
+      <c r="N9">
+        <v>0.52</v>
+      </c>
+      <c r="O9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="Q9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="R9">
+        <v>1.245</v>
+      </c>
+      <c r="S9">
+        <v>1.245</v>
+      </c>
+      <c r="T9">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.74</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>1.46</v>
+      </c>
+      <c r="F10">
+        <v>0.74</v>
+      </c>
+      <c r="G10">
+        <v>0.29</v>
+      </c>
+      <c r="H10">
+        <v>2.58</v>
+      </c>
+      <c r="I10">
+        <v>1.27</v>
+      </c>
+      <c r="J10">
+        <v>0.09</v>
+      </c>
+      <c r="K10">
+        <v>0.74</v>
+      </c>
+      <c r="L10">
+        <v>1.46</v>
+      </c>
+      <c r="M10">
+        <v>0.775</v>
+      </c>
+      <c r="N10">
+        <v>0.775</v>
+      </c>
+      <c r="O10">
+        <v>0.6133333333333334</v>
+      </c>
+      <c r="P10">
+        <v>0.7633333333333333</v>
+      </c>
+      <c r="Q10">
+        <v>0.7633333333333333</v>
+      </c>
+      <c r="R10">
+        <v>0.7575000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.7575000000000001</v>
+      </c>
+      <c r="T10">
+        <v>1.071666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9953760915961852</v>
+      </c>
+      <c r="D11">
+        <v>0.9942690565328817</v>
+      </c>
+      <c r="E11">
+        <v>0.9945233956007195</v>
+      </c>
+      <c r="F11">
+        <v>0.9953760915961852</v>
+      </c>
+      <c r="G11">
+        <v>0.9919540099929121</v>
+      </c>
+      <c r="H11">
+        <v>0.9942273845604775</v>
+      </c>
+      <c r="I11">
+        <v>0.9946471066514994</v>
+      </c>
+      <c r="J11">
+        <v>0.9942690565328817</v>
+      </c>
+      <c r="K11">
+        <v>0.9953760915961852</v>
+      </c>
+      <c r="L11">
+        <v>0.9945233956007195</v>
+      </c>
+      <c r="M11">
+        <v>0.9943962260668006</v>
+      </c>
+      <c r="N11">
+        <v>0.9943962260668006</v>
+      </c>
+      <c r="O11">
+        <v>0.993582154042171</v>
+      </c>
+      <c r="P11">
+        <v>0.9947228479099288</v>
+      </c>
+      <c r="Q11">
+        <v>0.9947228479099288</v>
+      </c>
+      <c r="R11">
+        <v>0.9948861588314929</v>
+      </c>
+      <c r="S11">
+        <v>0.9948861588314929</v>
+      </c>
+      <c r="T11">
+        <v>0.9941661741557793</v>
       </c>
     </row>
   </sheetData>
